--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -402,6 +402,15 @@
     <x:t>Mohamed Raed Sayed Foda</x:t>
   </x:si>
   <x:si>
+    <x:t>1220142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد رضا محمد عثمان دسوقى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Reda Mohamed Osman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220197</x:t>
   </x:si>
   <x:si>
@@ -490,15 +499,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Muhammed Abd ElRahman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد عبدالفتاح السيد عفيفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>youssef mohamed abdelfatah elsayed afify</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2317,7 +2317,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45920.9002795486</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2349,7 +2349,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2381,7 +2381,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2413,7 +2413,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2445,7 +2445,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2477,7 +2477,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2509,7 +2509,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2541,7 +2541,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2573,7 +2573,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2605,7 +2605,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.6648181713</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2637,7 +2637,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6644829051</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -411,6 +411,15 @@
     <x:t>Mohamed Reda Mohamed Osman</x:t>
   </x:si>
   <x:si>
+    <x:t>1220195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد طارق محمد عبدالخالق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Tarek Mohamef Abdelkhalek</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220197</x:t>
   </x:si>
   <x:si>
@@ -445,6 +454,15 @@
   </x:si>
   <x:si>
     <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نورهان أيمن منصور أحمد ندا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
   </x:si>
   <x:si>
     <x:t>1220291</x:t>
@@ -614,7 +632,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -914,7 +932,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T53"/>
+  <x:dimension ref="A1:T55"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2349,7 +2367,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45921.4872977199</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2381,7 +2399,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2413,7 +2431,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2445,7 +2463,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2477,7 +2495,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2509,7 +2527,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2541,7 +2559,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2573,7 +2591,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2605,7 +2623,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2637,7 +2655,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2654,6 +2672,70 @@
       <x:c r="R53" s="2" t="s"/>
       <x:c r="S53" s="2" t="s"/>
       <x:c r="T53" s="2" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:20">
+      <x:c r="A54" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E54" s="3">
+        <x:v>45906.6648181713</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s"/>
+      <x:c r="G54" s="2" t="s"/>
+      <x:c r="H54" s="2" t="s"/>
+      <x:c r="I54" s="2" t="s"/>
+      <x:c r="J54" s="2" t="s"/>
+      <x:c r="K54" s="2" t="s"/>
+      <x:c r="L54" s="2" t="s"/>
+      <x:c r="M54" s="2" t="s"/>
+      <x:c r="N54" s="2" t="s"/>
+      <x:c r="O54" s="2" t="s"/>
+      <x:c r="P54" s="2" t="s"/>
+      <x:c r="Q54" s="2" t="s"/>
+      <x:c r="R54" s="2" t="s"/>
+      <x:c r="S54" s="2" t="s"/>
+      <x:c r="T54" s="2" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20">
+      <x:c r="A55" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E55" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s"/>
+      <x:c r="G55" s="2" t="s"/>
+      <x:c r="H55" s="2" t="s"/>
+      <x:c r="I55" s="2" t="s"/>
+      <x:c r="J55" s="2" t="s"/>
+      <x:c r="K55" s="2" t="s"/>
+      <x:c r="L55" s="2" t="s"/>
+      <x:c r="M55" s="2" t="s"/>
+      <x:c r="N55" s="2" t="s"/>
+      <x:c r="O55" s="2" t="s"/>
+      <x:c r="P55" s="2" t="s"/>
+      <x:c r="Q55" s="2" t="s"/>
+      <x:c r="R55" s="2" t="s"/>
+      <x:c r="S55" s="2" t="s"/>
+      <x:c r="T55" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -249,6 +249,15 @@
     <x:t>Abdelrahman Mohamed Kamal Abdelaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1220257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Mohamed ElMahdy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230205</x:t>
   </x:si>
   <x:si>
@@ -517,6 +526,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Muhammed Abd ElRahman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف وائل محمود مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Wael Mahmoud Sayed Morsy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -632,7 +650,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -932,7 +950,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T55"/>
+  <x:dimension ref="A1:T57"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1791,7 +1809,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.9979055556</x:v>
+        <x:v>45921.9844193287</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1823,7 +1841,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6644927894</x:v>
+        <x:v>45913.9979055556</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1855,7 +1873,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45906.6644927894</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1887,7 +1905,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1919,7 +1937,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4163962153</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1951,7 +1969,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45909.4163962153</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1983,7 +2001,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45913.9970427431</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2015,7 +2033,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45913.9970427431</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2047,7 +2065,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2079,7 +2097,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2111,7 +2129,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2143,7 +2161,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2175,7 +2193,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.7189783912</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2207,7 +2225,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6645256134</x:v>
+        <x:v>45906.7189783912</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2239,7 +2257,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6645256134</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2271,7 +2289,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.4094888889</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2303,7 +2321,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6759089468</x:v>
+        <x:v>45916.4094888889</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2335,7 +2353,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45920.9002795486</x:v>
+        <x:v>45906.6759089468</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2367,7 +2385,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45921.4872977199</x:v>
+        <x:v>45920.9002795486</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2399,7 +2417,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45921.4872977199</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2431,7 +2449,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2463,7 +2481,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2495,7 +2513,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2527,7 +2545,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45921.5917385417</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2559,7 +2577,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2591,7 +2609,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2623,7 +2641,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2655,7 +2673,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2687,7 +2705,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2719,7 +2737,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.6648181713</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2736,6 +2754,70 @@
       <x:c r="R55" s="2" t="s"/>
       <x:c r="S55" s="2" t="s"/>
       <x:c r="T55" s="2" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:20">
+      <x:c r="A56" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E56" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s"/>
+      <x:c r="G56" s="2" t="s"/>
+      <x:c r="H56" s="2" t="s"/>
+      <x:c r="I56" s="2" t="s"/>
+      <x:c r="J56" s="2" t="s"/>
+      <x:c r="K56" s="2" t="s"/>
+      <x:c r="L56" s="2" t="s"/>
+      <x:c r="M56" s="2" t="s"/>
+      <x:c r="N56" s="2" t="s"/>
+      <x:c r="O56" s="2" t="s"/>
+      <x:c r="P56" s="2" t="s"/>
+      <x:c r="Q56" s="2" t="s"/>
+      <x:c r="R56" s="2" t="s"/>
+      <x:c r="S56" s="2" t="s"/>
+      <x:c r="T56" s="2" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:20">
+      <x:c r="A57" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D57" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E57" s="3">
+        <x:v>45922.0107260764</x:v>
+      </x:c>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="2" t="s"/>
+      <x:c r="Q57" s="2" t="s"/>
+      <x:c r="R57" s="2" t="s"/>
+      <x:c r="S57" s="2" t="s"/>
+      <x:c r="T57" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Rozana Ahmed Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ريتاج حسين محمود حسين عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retaj hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1220124</x:t>
@@ -650,7 +659,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -950,7 +959,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T57"/>
+  <x:dimension ref="A1:T58"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1489,7 +1498,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45924.9447443287</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1521,7 +1530,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.9975672801</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1553,7 +1562,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45913.9975672801</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1585,7 +1594,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.9972170139</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1617,7 +1626,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45913.9972170139</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1649,7 +1658,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1681,7 +1690,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1713,7 +1722,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1745,7 +1754,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650982639</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1777,7 +1786,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.6650982639</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1809,7 +1818,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9844193287</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1841,7 +1850,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.9979055556</x:v>
+        <x:v>45921.9844193287</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1873,7 +1882,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6644927894</x:v>
+        <x:v>45913.9979055556</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1905,7 +1914,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45906.6644927894</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1937,7 +1946,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1969,7 +1978,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4163962153</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2001,7 +2010,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45909.4163962153</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2033,7 +2042,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.9970427431</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2065,7 +2074,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45913.9970427431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2097,7 +2106,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2129,7 +2138,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2161,7 +2170,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2193,7 +2202,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2225,7 +2234,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.7189783912</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2257,7 +2266,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6645256134</x:v>
+        <x:v>45906.7189783912</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2289,7 +2298,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6645256134</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2321,7 +2330,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.4094888889</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2353,7 +2362,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6759089468</x:v>
+        <x:v>45916.4094888889</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2385,7 +2394,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45920.9002795486</x:v>
+        <x:v>45906.6759089468</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2417,7 +2426,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45921.4872977199</x:v>
+        <x:v>45920.9002795486</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2449,7 +2458,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45921.4872977199</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2481,7 +2490,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2513,7 +2522,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2545,7 +2554,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2577,7 +2586,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45921.5917385417</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2609,7 +2618,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2641,7 +2650,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2673,7 +2682,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2705,7 +2714,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2737,7 +2746,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2769,7 +2778,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.6648181713</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2801,7 +2810,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45922.0107260764</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2818,6 +2827,38 @@
       <x:c r="R57" s="2" t="s"/>
       <x:c r="S57" s="2" t="s"/>
       <x:c r="T57" s="2" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20">
+      <x:c r="A58" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E58" s="3">
+        <x:v>45922.0107260764</x:v>
+      </x:c>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="2" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="2" t="s"/>
+      <x:c r="Q58" s="2" t="s"/>
+      <x:c r="R58" s="2" t="s"/>
+      <x:c r="S58" s="2" t="s"/>
+      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1230149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم هشام ابراهيم عبد الدايم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hesham Ibrahim Abdel Dayem</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230138</x:t>
   </x:si>
   <x:si>
@@ -96,6 +105,15 @@
     <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
   </x:si>
   <x:si>
+    <x:t>1230162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امير ضياء الدين ابو العلا حمزه جيره الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amir</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230020</x:t>
   </x:si>
   <x:si>
@@ -438,6 +456,24 @@
     <x:t>Mohamed Tarek Mohamef Abdelkhalek</x:t>
   </x:si>
   <x:si>
+    <x:t>1220275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو ابراهيم المصري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed amr ebrahim elmasry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220197</x:t>
   </x:si>
   <x:si>
@@ -535,15 +571,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Muhammed Abd ElRahman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف وائل محمود مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Wael Mahmoud Sayed Morsy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -659,7 +686,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -959,7 +986,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1050,7 +1077,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.7137543171</x:v>
+        <x:v>45927.4142293981</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1082,7 +1109,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6644295139</x:v>
+        <x:v>45906.7137543171</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1114,7 +1141,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6642599537</x:v>
+        <x:v>45906.6644295139</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1146,7 +1173,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6648105671</x:v>
+        <x:v>45906.6642599537</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1178,7 +1205,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.998196331</x:v>
+        <x:v>45906.6648105671</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1210,7 +1237,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.9971320949</x:v>
+        <x:v>45913.998196331</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1242,7 +1269,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9713554051</x:v>
+        <x:v>45913.9971320949</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1274,7 +1301,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.9973759607</x:v>
+        <x:v>45915.9713554051</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1306,7 +1333,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.9969765857</x:v>
+        <x:v>45927.4153742708</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1338,7 +1365,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6649324884</x:v>
+        <x:v>45913.9973759607</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1370,7 +1397,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.8379341435</x:v>
+        <x:v>45913.9969765857</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1402,7 +1429,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45906.6649324884</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1434,7 +1461,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45913.8379341435</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1466,7 +1493,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.9980293981</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1498,7 +1525,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45924.9447443287</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1530,7 +1557,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45913.9980293981</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1562,7 +1589,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.9975672801</x:v>
+        <x:v>45924.9447443287</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1594,7 +1621,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1626,7 +1653,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.9972170139</x:v>
+        <x:v>45913.9975672801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1658,7 +1685,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1690,7 +1717,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45913.9972170139</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1722,7 +1749,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1754,7 +1781,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1786,7 +1813,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650982639</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1818,7 +1845,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1850,7 +1877,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.9844193287</x:v>
+        <x:v>45906.6650982639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1882,7 +1909,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.9979055556</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1914,7 +1941,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6644927894</x:v>
+        <x:v>45921.9844193287</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1946,7 +1973,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45913.9979055556</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1978,7 +2005,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6644927894</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2010,7 +2037,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4163962153</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2042,7 +2069,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2074,7 +2101,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45913.9970427431</x:v>
+        <x:v>45909.4163962153</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2106,7 +2133,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2138,7 +2165,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45913.9970427431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2170,7 +2197,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2202,7 +2229,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2234,7 +2261,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2266,7 +2293,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.7189783912</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2298,7 +2325,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6645256134</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2330,7 +2357,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.7189783912</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2362,7 +2389,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45916.4094888889</x:v>
+        <x:v>45906.6645256134</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2394,7 +2421,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6759089468</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2426,7 +2453,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45920.9002795486</x:v>
+        <x:v>45916.4094888889</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2458,7 +2485,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45921.4872977199</x:v>
+        <x:v>45906.6759089468</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2490,7 +2517,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45920.9002795486</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2522,7 +2549,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45921.4872977199</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2554,7 +2581,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45927.4172465278</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2586,7 +2613,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45927.4145966088</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2618,7 +2645,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45921.5917385417</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2650,7 +2677,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2682,7 +2709,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2714,7 +2741,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2746,7 +2773,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2778,7 +2805,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2810,7 +2837,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2842,7 +2869,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45922.0107260764</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2859,6 +2886,102 @@
       <x:c r="R58" s="2" t="s"/>
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20">
+      <x:c r="A59" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E59" s="3">
+        <x:v>45906.7083018171</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="2" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="2" t="s"/>
+      <x:c r="Q59" s="2" t="s"/>
+      <x:c r="R59" s="2" t="s"/>
+      <x:c r="S59" s="2" t="s"/>
+      <x:c r="T59" s="2" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20">
+      <x:c r="A60" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E60" s="3">
+        <x:v>45906.6648181713</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="2" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="2" t="s"/>
+      <x:c r="Q60" s="2" t="s"/>
+      <x:c r="R60" s="2" t="s"/>
+      <x:c r="S60" s="2" t="s"/>
+      <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmad Hisham GamalEldin Mahmoud Fouda Mahmoud Afifi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد وائل محمد جويد نحيله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed wael mohamed gowayed nehila</x:t>
   </x:si>
   <x:si>
     <x:t>1230018</x:t>
@@ -686,7 +677,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -986,7 +977,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T60"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1205,7 +1196,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6648105671</x:v>
+        <x:v>45913.998196331</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.998196331</x:v>
+        <x:v>45913.9971320949</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.9971320949</x:v>
+        <x:v>45915.9713554051</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9713554051</x:v>
+        <x:v>45927.4153742708</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4153742708</x:v>
+        <x:v>45913.9973759607</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.9973759607</x:v>
+        <x:v>45913.9969765857</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.9969765857</x:v>
+        <x:v>45906.6649324884</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6649324884</x:v>
+        <x:v>45913.8379341435</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.8379341435</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45913.9980293981</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.9980293981</x:v>
+        <x:v>45924.9447443287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45924.9447443287</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45913.9975672801</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1653,7 +1644,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.9975672801</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1685,7 +1676,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45913.9972170139</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1717,7 +1708,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.9972170139</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1749,7 +1740,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1781,7 +1772,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1813,7 +1804,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1845,7 +1836,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45906.6650982639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1877,7 +1868,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6650982639</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1909,7 +1900,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45921.9844193287</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1941,7 +1932,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45921.9844193287</x:v>
+        <x:v>45913.9979055556</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1973,7 +1964,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.9979055556</x:v>
+        <x:v>45906.6644927894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2005,7 +1996,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6644927894</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2037,7 +2028,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2069,7 +2060,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45909.4163962153</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2101,7 +2092,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4163962153</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2133,7 +2124,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45913.9970427431</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2165,7 +2156,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.9970427431</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2197,7 +2188,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2229,7 +2220,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2261,7 +2252,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2293,7 +2284,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2325,7 +2316,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.7189783912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2357,7 +2348,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.7189783912</x:v>
+        <x:v>45906.6645256134</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2389,7 +2380,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6645256134</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2421,7 +2412,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45916.4094888889</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2453,7 +2444,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45916.4094888889</x:v>
+        <x:v>45906.6759089468</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2485,7 +2476,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6759089468</x:v>
+        <x:v>45920.9002795486</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2517,7 +2508,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45920.9002795486</x:v>
+        <x:v>45921.4872977199</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2549,7 +2540,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45921.4872977199</x:v>
+        <x:v>45927.4172465278</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2581,7 +2572,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45927.4172465278</x:v>
+        <x:v>45927.4145966088</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2613,7 +2604,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45927.4145966088</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2645,7 +2636,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2677,7 +2668,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2709,7 +2700,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2741,7 +2732,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2773,7 +2764,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45921.5917385417</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2805,7 +2796,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2837,7 +2828,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2869,7 +2860,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2901,7 +2892,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6648181713</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2933,7 +2924,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2950,38 +2941,6 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:20">
-      <x:c r="A61" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="E61" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F61" s="2" t="s"/>
-      <x:c r="G61" s="2" t="s"/>
-      <x:c r="H61" s="2" t="s"/>
-      <x:c r="I61" s="2" t="s"/>
-      <x:c r="J61" s="2" t="s"/>
-      <x:c r="K61" s="2" t="s"/>
-      <x:c r="L61" s="2" t="s"/>
-      <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="2" t="s"/>
-      <x:c r="O61" s="2" t="s"/>
-      <x:c r="P61" s="2" t="s"/>
-      <x:c r="Q61" s="2" t="s"/>
-      <x:c r="R61" s="2" t="s"/>
-      <x:c r="S61" s="2" t="s"/>
-      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -355,6 +355,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Mahmoud Mohamed Mostafa Hegab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم وائل إسماعيل يوسف ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karim wael ismaiel yousef Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1220138</x:t>
@@ -677,7 +686,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -977,7 +986,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T60"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2220,7 +2229,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45928.3181037847</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2252,7 +2261,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2284,7 +2293,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2316,7 +2325,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.7189783912</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2348,7 +2357,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6645256134</x:v>
+        <x:v>45906.7189783912</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2380,7 +2389,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6645256134</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2412,7 +2421,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45916.4094888889</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2444,7 +2453,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6759089468</x:v>
+        <x:v>45916.4094888889</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2476,7 +2485,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45920.9002795486</x:v>
+        <x:v>45906.6759089468</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2508,7 +2517,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45921.4872977199</x:v>
+        <x:v>45920.9002795486</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2540,7 +2549,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45927.4172465278</x:v>
+        <x:v>45921.4872977199</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2572,7 +2581,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45927.4145966088</x:v>
+        <x:v>45927.4172465278</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2604,7 +2613,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45927.4145966088</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2636,7 +2645,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2668,7 +2677,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2700,7 +2709,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2732,7 +2741,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45921.5917385417</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2764,7 +2773,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2796,7 +2805,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2828,7 +2837,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2860,7 +2869,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2892,7 +2901,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2924,7 +2933,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.6648181713</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2941,6 +2950,38 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>امير ضياء الدين ابو العلا حمزه جيره الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amir</x:t>
   </x:si>
   <x:si>
     <x:t>1230020</x:t>
@@ -686,7 +677,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -986,7 +977,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T60"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1301,7 +1292,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4153742708</x:v>
+        <x:v>45913.9973759607</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.9973759607</x:v>
+        <x:v>45913.9969765857</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.9969765857</x:v>
+        <x:v>45906.6649324884</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6649324884</x:v>
+        <x:v>45913.8379341435</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.8379341435</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45913.9980293981</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.9980293981</x:v>
+        <x:v>45924.9447443287</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45924.9447443287</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45913.9975672801</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.9975672801</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1653,7 +1644,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45913.9972170139</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1685,7 +1676,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.9972170139</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1717,7 +1708,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1749,7 +1740,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1781,7 +1772,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1813,7 +1804,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45906.6650982639</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1845,7 +1836,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6650982639</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1877,7 +1868,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45921.9844193287</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1909,7 +1900,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.9844193287</x:v>
+        <x:v>45913.9979055556</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1941,7 +1932,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.9979055556</x:v>
+        <x:v>45906.6644927894</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1973,7 +1964,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6644927894</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2005,7 +1996,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2037,7 +2028,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45909.4163962153</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2069,7 +2060,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4163962153</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2101,7 +2092,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45913.9970427431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2133,7 +2124,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.9970427431</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2165,7 +2156,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2197,7 +2188,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45928.3181037847</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2229,7 +2220,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45928.3181037847</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2261,7 +2252,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2293,7 +2284,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2325,7 +2316,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.7189783912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2357,7 +2348,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.7189783912</x:v>
+        <x:v>45906.6645256134</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2389,7 +2380,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6645256134</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2421,7 +2412,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45916.4094888889</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2453,7 +2444,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45916.4094888889</x:v>
+        <x:v>45906.6759089468</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2485,7 +2476,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6759089468</x:v>
+        <x:v>45920.9002795486</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2517,7 +2508,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45920.9002795486</x:v>
+        <x:v>45921.4872977199</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2549,7 +2540,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45921.4872977199</x:v>
+        <x:v>45927.4172465278</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2581,7 +2572,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45927.4172465278</x:v>
+        <x:v>45927.4145966088</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2613,7 +2604,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45927.4145966088</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2645,7 +2636,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2677,7 +2668,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2709,7 +2700,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2741,7 +2732,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2773,7 +2764,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45921.5917385417</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2805,7 +2796,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2837,7 +2828,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2869,7 +2860,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2901,7 +2892,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6648181713</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2933,7 +2924,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2950,38 +2941,6 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:20">
-      <x:c r="A61" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="E61" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F61" s="2" t="s"/>
-      <x:c r="G61" s="2" t="s"/>
-      <x:c r="H61" s="2" t="s"/>
-      <x:c r="I61" s="2" t="s"/>
-      <x:c r="J61" s="2" t="s"/>
-      <x:c r="K61" s="2" t="s"/>
-      <x:c r="L61" s="2" t="s"/>
-      <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="2" t="s"/>
-      <x:c r="O61" s="2" t="s"/>
-      <x:c r="P61" s="2" t="s"/>
-      <x:c r="Q61" s="2" t="s"/>
-      <x:c r="R61" s="2" t="s"/>
-      <x:c r="S61" s="2" t="s"/>
-      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -490,6 +490,15 @@
   </x:si>
   <x:si>
     <x:t>MANAR FARGHALY ABDELRAHMAN ABDELSHAFY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ندى سراج محمد عصمت محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nada Serag Mohamed Esmat</x:t>
   </x:si>
   <x:si>
     <x:t>1220150</x:t>
@@ -677,7 +686,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -977,7 +986,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T60"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2700,7 +2709,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45931.6334187153</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2732,7 +2741,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45921.5917385417</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2764,7 +2773,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2796,7 +2805,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2828,7 +2837,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2860,7 +2869,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2892,7 +2901,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2924,7 +2933,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.6648181713</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2941,6 +2950,38 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Asmahan Ibrahim Yosef Albetar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اكمل محمد عماد عصمت نورالدين عصمت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akmal mohamed emad esmat</x:t>
   </x:si>
   <x:si>
     <x:t>1220226</x:t>
@@ -686,7 +695,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -986,7 +995,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T62"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1269,7 +1278,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9713554051</x:v>
+        <x:v>45936.5170052894</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1301,7 +1310,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.9973759607</x:v>
+        <x:v>45915.9713554051</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1333,7 +1342,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.9969765857</x:v>
+        <x:v>45913.9973759607</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6649324884</x:v>
+        <x:v>45913.9969765857</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.8379341435</x:v>
+        <x:v>45906.6649324884</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45913.8379341435</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.9980293981</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45924.9447443287</x:v>
+        <x:v>45913.9980293981</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45924.9447443287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.9975672801</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45913.9975672801</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.9972170139</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1685,7 +1694,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45913.9972170139</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1717,7 +1726,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1749,7 +1758,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1781,7 +1790,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1813,7 +1822,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650982639</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1845,7 +1854,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.6650982639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1877,7 +1886,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.9844193287</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1909,7 +1918,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.9979055556</x:v>
+        <x:v>45921.9844193287</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1941,7 +1950,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6644927894</x:v>
+        <x:v>45913.9979055556</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1973,7 +1982,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4144276273</x:v>
+        <x:v>45906.6644927894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2005,7 +2014,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45907.4144276273</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2037,7 +2046,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4163962153</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2069,7 +2078,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45909.4163962153</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2101,7 +2110,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45913.9970427431</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2133,7 +2142,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45913.9970427431</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2165,7 +2174,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2197,7 +2206,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45928.3181037847</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2229,7 +2238,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45928.3181037847</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2261,7 +2270,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2293,7 +2302,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2325,7 +2334,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.7189783912</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2357,7 +2366,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6645256134</x:v>
+        <x:v>45906.7189783912</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2389,7 +2398,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6645256134</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2421,7 +2430,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45916.4094888889</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2453,7 +2462,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6759089468</x:v>
+        <x:v>45916.4094888889</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2485,7 +2494,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45920.9002795486</x:v>
+        <x:v>45906.6759089468</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2517,7 +2526,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45921.4872977199</x:v>
+        <x:v>45920.9002795486</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2549,7 +2558,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45927.4172465278</x:v>
+        <x:v>45921.4872977199</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2581,7 +2590,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45927.4145966088</x:v>
+        <x:v>45927.4172465278</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2613,7 +2622,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6648935185</x:v>
+        <x:v>45927.4145966088</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2645,7 +2654,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6648935185</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2677,7 +2686,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6648260764</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2709,7 +2718,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45931.6334187153</x:v>
+        <x:v>45906.6648260764</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2741,7 +2750,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45931.6334187153</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2773,7 +2782,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45921.5917385417</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2805,7 +2814,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6647930556</x:v>
+        <x:v>45921.5917385417</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2837,7 +2846,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6647930556</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2869,7 +2878,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6697979167</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2901,7 +2910,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.7083018171</x:v>
+        <x:v>45906.6697979167</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2933,7 +2942,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.7083018171</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2965,7 +2974,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45906.6648181713</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -2982,6 +2991,38 @@
       <x:c r="R61" s="2" t="s"/>
       <x:c r="S61" s="2" t="s"/>
       <x:c r="T61" s="2" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20">
+      <x:c r="A62" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D62" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E62" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F62" s="2" t="s"/>
+      <x:c r="G62" s="2" t="s"/>
+      <x:c r="H62" s="2" t="s"/>
+      <x:c r="I62" s="2" t="s"/>
+      <x:c r="J62" s="2" t="s"/>
+      <x:c r="K62" s="2" t="s"/>
+      <x:c r="L62" s="2" t="s"/>
+      <x:c r="M62" s="2" t="s"/>
+      <x:c r="N62" s="2" t="s"/>
+      <x:c r="O62" s="2" t="s"/>
+      <x:c r="P62" s="2" t="s"/>
+      <x:c r="Q62" s="2" t="s"/>
+      <x:c r="R62" s="2" t="s"/>
+      <x:c r="S62" s="2" t="s"/>
+      <x:c r="T62" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -480,7 +480,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1220205</x:t>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -390,7 +390,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4230167</x:t>
@@ -516,7 +516,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1230274</x:t>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1220115</x:t>
@@ -246,7 +246,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1220182</x:t>
@@ -399,7 +399,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>1210025</x:t>
@@ -462,7 +462,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1230246</x:t>
@@ -471,7 +471,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1220197</x:t>
@@ -525,7 +525,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1220291</x:t>

--- a/downloaded_files/CMPS425_Lecture-35615.xlsx
+++ b/downloaded_files/CMPS425_Lecture-35615.xlsx
@@ -273,7 +273,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1230205</x:t>
@@ -318,7 +318,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4230159</x:t>
